--- a/Daily/Eval/DifferentTestSizes.xlsx
+++ b/Daily/Eval/DifferentTestSizes.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisa\Documents\MasterIS\project\Daily\Eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BE9D90-D64C-467A-8909-03F01400BB27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE5443D-E67D-4A60-A4E1-CC250B0644E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5640" xr2:uid="{F02BF259-C4A1-479E-91E2-165B4962707C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Neues_Textdokument" localSheetId="0">Tabelle2!$A$3:$B$283</definedName>
+    <definedName name="Neues_Textdokument_1" localSheetId="1">Tabelle1!$B$2:$C$281</definedName>
     <definedName name="Neues_Textdokument_1" localSheetId="0">Tabelle2!$D$3:$D$282</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +40,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{2EDECBB1-E2B4-4ACD-8156-267C5DF03FC4}" name="Neues Textdokument11" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{A507E086-09C7-43C2-8689-2B920A933753}" name="Neues Textdokument1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Lisa\Documents\Neues Textdokument.txt" decimal="," thousands="." delimiter=":">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{2EDECBB1-E2B4-4ACD-8156-267C5DF03FC4}" name="Neues Textdokument11" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\Lisa\Documents\Neues Textdokument.txt" decimal="," thousands="." qualifier="none" delimiter=":">
       <textFields count="2">
         <textField/>
@@ -50,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="588">
   <si>
     <t>Model</t>
   </si>
@@ -1211,6 +1221,609 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.9465923292296273</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9623121098721193</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.53768605</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9681696620854464</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9723469127308239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9621347141265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.56142855</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9582942424501691</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5385714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9620265043874916</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5400864</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9710496149279855</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.52982956</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9701186526905407</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.53835225</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.95398430619921</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9560466749327523</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5328571</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9612683402879617</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5362458</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9699742523106661</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9674218242818658</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5411932</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9561287212371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9555988873754229</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.54142857</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9597980847338101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.53864616</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9761400900103829</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.52414775</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9665666547688571</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9566301788602557</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.954113050188337</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9601349902164461</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5348056</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9680613387714733</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5355114</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9762230569666083</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9617590761184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9574592747007098</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5442857</t>
+  </si>
+  <si>
+    <t>model01_H2_L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.960936357868559</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5367259</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9674975086342205</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9707220142537897</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.54403406</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9587191203662327</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.56285715</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9576613334247044</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9605747831594583</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5405665</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.968394474549727</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.53267044</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9706568257375197</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9611186347688947</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.55142856</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9598288450922284</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9610670991545964</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.53960633</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9708515216003765</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9748294651508331</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9552795594079154</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9580298141070774</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9630197414227878</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9702368676662445</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9667550298300657</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9550953013556344</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5657143</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9531236134256635</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.961534907482475</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.53720593</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.977013807405125</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9637216627597809</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9566449792044504</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9589050156729562</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9620912366627616</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9783127334984866</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.52272725</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.976227034221996</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9597796079090664</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9601174787112645</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9620355698447701</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9709445834159851</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9652733748609369</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9597213540758406</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.55857146</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9539663665635245</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4699952</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9708577150648291</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9679903740232642</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9563243927274432</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9579902236802237</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9615445774847993</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9690536233511838</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9777166653763164</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9590637602124895</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9557029560634068</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9720824568590978</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5276044</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9657180166922474</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.52417064</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9927822240720993</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5080569</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9637357968375796</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9764215074266707</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5304762</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9703361247802548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5261642</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9634382886909195</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5298578</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9907253320748207</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.50521326</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9627269161315192</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9766487973076957</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9694377453179527</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5300048</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.962983441691828</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.53459716</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.989352761512684</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5109005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9650887748173305</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9748296474275134</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9727646683307434</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9646154600862078</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9891522083237273</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9662085010891869</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.53333336</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9721290086564564</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5390476</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.972388702204636</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.52472395</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9651300950072953</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.53175354</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5042654</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9635853886604309</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9763264946710496</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9736876098570547</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.52232355</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9642020165637771</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.53270143</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9933108580620933</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.51184833</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9620182887713115</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.974483433905102</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9734649710568224</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5256841</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9608351359435168</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9984242608761901</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.50236964</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9704888520921979</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5209524</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9785258290881202</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.972327967160491</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5290446</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9623166389374936</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9925011696973683</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9633712810561771</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.53238094</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9786812623341878</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.970072818872623</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.53288525</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9608045005685345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9900387498439771</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.507109</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9669288001741682</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.52666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9751252603530883</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9718849249488164</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9621915137033327</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9860648712840691</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5090047</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9669591036297026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9724729860396613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9723242449462843</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9675441593355477</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5308057</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9969566220920798</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9592193075588771</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9788304764883858</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.52761906</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9731621030312115</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5285646</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9654362706776479</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.50331753</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9615085852713812</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9776627738135202</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4594335</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9641257943700275</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.53554505</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9905321541555685</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9606057887985593</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9735539459046864</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9735787987594586</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5232837</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9650101306879125</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9929194574672464</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9657371066865467</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9790969528470721</t>
   </si>
 </sst>
 </file>
@@ -1267,11 +1880,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Neues Textdokument_1" connectionId="2" xr16:uid="{B628D715-5854-4D6C-B4B2-EA9CDBA5AA69}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Neues Textdokument" connectionId="1" xr16:uid="{9F0744AB-4C00-4EFF-8F10-5701F0DC91ED}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Neues Textdokument" connectionId="1" xr16:uid="{9F0744AB-4C00-4EFF-8F10-5701F0DC91ED}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Neues Textdokument_1" connectionId="3" xr16:uid="{B628D715-5854-4D6C-B4B2-EA9CDBA5AA69}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Neues Textdokument_1" connectionId="2" xr16:uid="{49F48774-4B0C-4E64-A069-2DB3993FD269}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1571,20 +2188,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070AFF72-2B98-4D9D-AF7A-5A5E9ED5F907}">
-  <dimension ref="A2:E281"/>
+  <dimension ref="A2:G281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F291" sqref="F291"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1600,13 +2217,19 @@
       <c r="E2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+      <c r="G2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1622,8 +2245,14 @@
       <c r="E4" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1639,18 +2268,24 @@
       <c r="E5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1666,8 +2301,14 @@
       <c r="E8" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>389</v>
+      </c>
+      <c r="G8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1683,18 +2324,24 @@
       <c r="E9" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1710,8 +2357,14 @@
       <c r="E12" s="1">
         <v>1.01036825734125E+16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>390</v>
+      </c>
+      <c r="G12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1727,18 +2380,24 @@
       <c r="E13" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1754,8 +2413,14 @@
       <c r="E16" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>391</v>
+      </c>
+      <c r="G16" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1771,18 +2436,24 @@
       <c r="E17" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>392</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1798,8 +2469,14 @@
       <c r="E20" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>393</v>
+      </c>
+      <c r="G20" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1815,18 +2492,24 @@
       <c r="E21" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>394</v>
+      </c>
+      <c r="G21" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1842,8 +2525,14 @@
       <c r="E24" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>395</v>
+      </c>
+      <c r="G24" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1859,18 +2548,24 @@
       <c r="E25" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>396</v>
+      </c>
+      <c r="G25" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1886,8 +2581,14 @@
       <c r="E28" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>397</v>
+      </c>
+      <c r="G28" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1903,18 +2604,24 @@
       <c r="E29" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>398</v>
+      </c>
+      <c r="G29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1930,8 +2637,14 @@
       <c r="E32" s="1">
         <v>1.01320255306405E+16</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>399</v>
+      </c>
+      <c r="G32" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1947,18 +2660,24 @@
       <c r="E33" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>400</v>
+      </c>
+      <c r="G33" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1974,8 +2693,14 @@
       <c r="E36" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>401</v>
+      </c>
+      <c r="G36" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1991,18 +2716,24 @@
       <c r="E37" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>392</v>
+      </c>
+      <c r="G37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2018,8 +2749,14 @@
       <c r="E40" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>402</v>
+      </c>
+      <c r="G40" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2035,18 +2772,24 @@
       <c r="E41" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>403</v>
+      </c>
+      <c r="G41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -2062,8 +2805,14 @@
       <c r="E44" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>404</v>
+      </c>
+      <c r="G44" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2079,18 +2828,24 @@
       <c r="E45" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>405</v>
+      </c>
+      <c r="G45" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -2106,8 +2861,14 @@
       <c r="E48" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>406</v>
+      </c>
+      <c r="G48" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2123,18 +2884,24 @@
       <c r="E49" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -2150,8 +2917,14 @@
       <c r="E52" s="1">
         <v>1.01176866511224E+16</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>407</v>
+      </c>
+      <c r="G52" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2167,18 +2940,24 @@
       <c r="E53" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>408</v>
+      </c>
+      <c r="G53" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -2194,8 +2973,14 @@
       <c r="E56" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>409</v>
+      </c>
+      <c r="G56" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -2211,18 +2996,24 @@
       <c r="E57" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>192</v>
+      </c>
+      <c r="G57" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -2238,8 +3029,14 @@
       <c r="E60" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>410</v>
+      </c>
+      <c r="G60" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -2255,18 +3052,24 @@
       <c r="E61" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>411</v>
+      </c>
+      <c r="G61" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2282,8 +3085,14 @@
       <c r="E64" s="1">
         <v>1.00621126485213E+16</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>412</v>
+      </c>
+      <c r="G64" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -2299,18 +3108,24 @@
       <c r="E65" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>413</v>
+      </c>
+      <c r="G65" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -2326,8 +3141,14 @@
       <c r="E68" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>414</v>
+      </c>
+      <c r="G68" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -2343,18 +3164,24 @@
       <c r="E69" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
+        <v>415</v>
+      </c>
+      <c r="G69" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -2370,8 +3197,14 @@
       <c r="E72" s="1">
         <v>1.00560831016218E+16</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>416</v>
+      </c>
+      <c r="G72" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -2387,18 +3220,24 @@
       <c r="E73" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>417</v>
+      </c>
+      <c r="G73" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -2414,8 +3253,14 @@
       <c r="E76" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
+        <v>418</v>
+      </c>
+      <c r="G76" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -2431,18 +3276,24 @@
       <c r="E77" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
+        <v>192</v>
+      </c>
+      <c r="G77" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -2458,8 +3309,14 @@
       <c r="E80" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>419</v>
+      </c>
+      <c r="G80" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -2475,18 +3332,24 @@
       <c r="E81" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>69</v>
+      </c>
+      <c r="G81" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -2502,8 +3365,14 @@
       <c r="E84" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>420</v>
+      </c>
+      <c r="G84" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -2519,18 +3388,24 @@
       <c r="E85" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>421</v>
+      </c>
+      <c r="G85" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -2546,8 +3421,14 @@
       <c r="E88" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>422</v>
+      </c>
+      <c r="G88" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -2563,18 +3444,24 @@
       <c r="E89" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>423</v>
+      </c>
+      <c r="G89" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -2590,8 +3477,14 @@
       <c r="E92" s="1">
         <v>1.02034636618385E+16</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
+        <v>424</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1.00246366640967E+16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2607,18 +3500,24 @@
       <c r="E93" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" t="s">
+        <v>79</v>
+      </c>
+      <c r="G93" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -2634,8 +3533,14 @@
       <c r="E96" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" t="s">
+        <v>425</v>
+      </c>
+      <c r="G96" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -2651,18 +3556,24 @@
       <c r="E97" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" t="s">
+        <v>392</v>
+      </c>
+      <c r="G97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -2678,8 +3589,14 @@
       <c r="E100" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" t="s">
+        <v>426</v>
+      </c>
+      <c r="G100" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -2695,18 +3612,24 @@
       <c r="E101" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" t="s">
+        <v>427</v>
+      </c>
+      <c r="G101" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -2722,8 +3645,14 @@
       <c r="E104" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" t="s">
+        <v>429</v>
+      </c>
+      <c r="G104" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -2739,18 +3668,24 @@
       <c r="E105" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" t="s">
+        <v>430</v>
+      </c>
+      <c r="G105" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -2766,8 +3701,14 @@
       <c r="E108" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" t="s">
+        <v>431</v>
+      </c>
+      <c r="G108" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -2783,18 +3724,24 @@
       <c r="E109" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -2810,8 +3757,14 @@
       <c r="E112" s="1">
         <v>1.00411299584617E+16</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" t="s">
+        <v>432</v>
+      </c>
+      <c r="G112" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -2827,18 +3780,24 @@
       <c r="E113" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" t="s">
+        <v>433</v>
+      </c>
+      <c r="G113" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -2854,8 +3813,14 @@
       <c r="E116" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" t="s">
+        <v>434</v>
+      </c>
+      <c r="G116" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -2871,18 +3836,24 @@
       <c r="E117" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" t="s">
+        <v>435</v>
+      </c>
+      <c r="G117" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -2898,8 +3869,14 @@
       <c r="E120" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" t="s">
+        <v>436</v>
+      </c>
+      <c r="G120" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -2915,18 +3892,24 @@
       <c r="E121" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" t="s">
+        <v>403</v>
+      </c>
+      <c r="G121" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>2</v>
       </c>
@@ -2942,8 +3925,14 @@
       <c r="E124" s="1">
         <v>1000502442058760</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" t="s">
+        <v>437</v>
+      </c>
+      <c r="G124" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -2959,18 +3948,24 @@
       <c r="E125" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" t="s">
+        <v>438</v>
+      </c>
+      <c r="G125" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -2986,8 +3981,14 @@
       <c r="E128" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" t="s">
+        <v>439</v>
+      </c>
+      <c r="G128" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -3003,18 +4004,24 @@
       <c r="E129" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129" t="s">
+        <v>440</v>
+      </c>
+      <c r="G129" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -3030,8 +4037,14 @@
       <c r="E132" s="1">
         <v>1.00562660207211E+16</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" t="s">
+        <v>441</v>
+      </c>
+      <c r="G132" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -3047,18 +4060,24 @@
       <c r="E133" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" t="s">
+        <v>400</v>
+      </c>
+      <c r="G133" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -3074,8 +4093,14 @@
       <c r="E136" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" t="s">
+        <v>442</v>
+      </c>
+      <c r="G136" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -3091,18 +4116,24 @@
       <c r="E137" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" t="s">
+        <v>443</v>
+      </c>
+      <c r="G137" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -3118,8 +4149,14 @@
       <c r="E140" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" t="s">
+        <v>444</v>
+      </c>
+      <c r="G140" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -3135,18 +4172,24 @@
       <c r="E141" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" t="s">
+        <v>394</v>
+      </c>
+      <c r="G141" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -3162,8 +4205,14 @@
       <c r="E144" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" t="s">
+        <v>445</v>
+      </c>
+      <c r="G144" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -3179,18 +4228,24 @@
       <c r="E145" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145" t="s">
+        <v>446</v>
+      </c>
+      <c r="G145" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -3206,8 +4261,14 @@
       <c r="E148" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" t="s">
+        <v>447</v>
+      </c>
+      <c r="G148" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -3223,18 +4284,24 @@
       <c r="E149" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" t="s">
+        <v>398</v>
+      </c>
+      <c r="G149" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -3250,8 +4317,14 @@
       <c r="E152" s="1">
         <v>1003039173676930</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152" t="s">
+        <v>448</v>
+      </c>
+      <c r="G152" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -3267,18 +4340,24 @@
       <c r="E153" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" t="s">
+        <v>440</v>
+      </c>
+      <c r="G153" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>2</v>
       </c>
@@ -3294,8 +4373,14 @@
       <c r="E156" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" t="s">
+        <v>449</v>
+      </c>
+      <c r="G156" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -3311,18 +4396,24 @@
       <c r="E157" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157" t="s">
+        <v>392</v>
+      </c>
+      <c r="G157" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>2</v>
       </c>
@@ -3338,8 +4429,14 @@
       <c r="E160" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" t="s">
+        <v>450</v>
+      </c>
+      <c r="G160" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -3355,18 +4452,24 @@
       <c r="E161" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161" t="s">
+        <v>43</v>
+      </c>
+      <c r="G161" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -3382,8 +4485,14 @@
       <c r="E164" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164" t="s">
+        <v>451</v>
+      </c>
+      <c r="G164" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -3399,18 +4508,24 @@
       <c r="E165" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165" t="s">
+        <v>388</v>
+      </c>
+      <c r="G165" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -3426,8 +4541,14 @@
       <c r="E168" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168" t="s">
+        <v>452</v>
+      </c>
+      <c r="G168" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -3443,18 +4564,24 @@
       <c r="E169" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169" t="s">
+        <v>423</v>
+      </c>
+      <c r="G169" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -3470,8 +4597,14 @@
       <c r="E172" s="1">
         <v>1.02093889092055E+16</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172" t="s">
+        <v>453</v>
+      </c>
+      <c r="G172" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -3487,18 +4620,24 @@
       <c r="E173" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173" t="s">
+        <v>26</v>
+      </c>
+      <c r="G173" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -3514,8 +4653,14 @@
       <c r="E176" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176" t="s">
+        <v>454</v>
+      </c>
+      <c r="G176" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -3531,18 +4676,24 @@
       <c r="E177" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177" t="s">
+        <v>455</v>
+      </c>
+      <c r="G177" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -3558,8 +4709,14 @@
       <c r="E180" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180" t="s">
+        <v>456</v>
+      </c>
+      <c r="G180" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -3575,18 +4732,24 @@
       <c r="E181" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181" t="s">
+        <v>187</v>
+      </c>
+      <c r="G181" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -3602,8 +4765,14 @@
       <c r="E184" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184" t="s">
+        <v>457</v>
+      </c>
+      <c r="G184" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -3619,18 +4788,24 @@
       <c r="E185" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185" t="s">
+        <v>458</v>
+      </c>
+      <c r="G185" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -3646,8 +4821,14 @@
       <c r="E188" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188" t="s">
+        <v>459</v>
+      </c>
+      <c r="G188" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -3663,18 +4844,24 @@
       <c r="E189" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189" t="s">
+        <v>460</v>
+      </c>
+      <c r="G189" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -3690,8 +4877,14 @@
       <c r="E192" s="1">
         <v>1.02653393275301E+16</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192" t="s">
+        <v>461</v>
+      </c>
+      <c r="G192" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -3707,18 +4900,24 @@
       <c r="E193" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193" t="s">
+        <v>408</v>
+      </c>
+      <c r="G193" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -3734,8 +4933,14 @@
       <c r="E196" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196" t="s">
+        <v>462</v>
+      </c>
+      <c r="G196" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -3751,18 +4956,24 @@
       <c r="E197" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197" t="s">
+        <v>435</v>
+      </c>
+      <c r="G197" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>2</v>
       </c>
@@ -3778,8 +4989,14 @@
       <c r="E200" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200" t="s">
+        <v>463</v>
+      </c>
+      <c r="G200" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -3795,18 +5012,24 @@
       <c r="E201" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201" t="s">
+        <v>394</v>
+      </c>
+      <c r="G201" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>2</v>
       </c>
@@ -3822,8 +5045,14 @@
       <c r="E204" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204" t="s">
+        <v>464</v>
+      </c>
+      <c r="G204" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -3839,18 +5068,24 @@
       <c r="E205" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205" t="s">
+        <v>396</v>
+      </c>
+      <c r="G205" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>2</v>
       </c>
@@ -3866,8 +5101,14 @@
       <c r="E208" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208" t="s">
+        <v>465</v>
+      </c>
+      <c r="G208" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -3883,18 +5124,24 @@
       <c r="E209" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209" t="s">
+        <v>466</v>
+      </c>
+      <c r="G209" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>2</v>
       </c>
@@ -3910,8 +5157,14 @@
       <c r="E212" s="1">
         <v>1026773666831800</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212" t="s">
+        <v>467</v>
+      </c>
+      <c r="G212" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -3927,18 +5180,24 @@
       <c r="E213" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213" t="s">
+        <v>12</v>
+      </c>
+      <c r="G213" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>2</v>
       </c>
@@ -3954,8 +5213,14 @@
       <c r="E216" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216" t="s">
+        <v>468</v>
+      </c>
+      <c r="G216" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -3971,18 +5236,24 @@
       <c r="E217" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217" t="s">
+        <v>469</v>
+      </c>
+      <c r="G217" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>2</v>
       </c>
@@ -3998,8 +5269,14 @@
       <c r="E220" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220" t="s">
+        <v>470</v>
+      </c>
+      <c r="G220" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -4015,18 +5292,24 @@
       <c r="E221" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221" t="s">
+        <v>187</v>
+      </c>
+      <c r="G221" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>2</v>
       </c>
@@ -4042,8 +5325,14 @@
       <c r="E224" s="1">
         <v>1.00157979401675E+16</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224" t="s">
+        <v>471</v>
+      </c>
+      <c r="G224" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -4059,18 +5348,24 @@
       <c r="E225" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225" t="s">
+        <v>430</v>
+      </c>
+      <c r="G225" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -4086,8 +5381,14 @@
       <c r="E228" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228" t="s">
+        <v>472</v>
+      </c>
+      <c r="G228" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -4103,18 +5404,24 @@
       <c r="E229" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229" t="s">
+        <v>9</v>
+      </c>
+      <c r="G229" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>2</v>
       </c>
@@ -4130,8 +5437,14 @@
       <c r="E232" s="1">
         <v>1.01774372013521E+16</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232" t="s">
+        <v>473</v>
+      </c>
+      <c r="G232" s="1">
+        <v>1.00737085986476E+16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -4147,18 +5460,24 @@
       <c r="E233" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233" t="s">
+        <v>433</v>
+      </c>
+      <c r="G233" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>2</v>
       </c>
@@ -4174,8 +5493,14 @@
       <c r="E236" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236" t="s">
+        <v>474</v>
+      </c>
+      <c r="G236" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -4191,18 +5516,24 @@
       <c r="E237" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237" t="s">
+        <v>475</v>
+      </c>
+      <c r="G237" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>2</v>
       </c>
@@ -4218,8 +5549,14 @@
       <c r="E240" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240" t="s">
+        <v>476</v>
+      </c>
+      <c r="G240" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -4235,18 +5572,24 @@
       <c r="E241" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241" t="s">
+        <v>187</v>
+      </c>
+      <c r="G241" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>2</v>
       </c>
@@ -4262,8 +5605,14 @@
       <c r="E244" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244" s="1">
+        <v>1.05928757954147E+16</v>
+      </c>
+      <c r="G244" s="1">
+        <v>1.06309885622158E+16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>4</v>
       </c>
@@ -4279,18 +5628,24 @@
       <c r="E245" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245" t="s">
+        <v>477</v>
+      </c>
+      <c r="G245" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>2</v>
       </c>
@@ -4306,8 +5661,14 @@
       <c r="E248" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248" t="s">
+        <v>478</v>
+      </c>
+      <c r="G248" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -4323,18 +5684,24 @@
       <c r="E249" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249" t="s">
+        <v>76</v>
+      </c>
+      <c r="G249" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>2</v>
       </c>
@@ -4350,8 +5717,14 @@
       <c r="E252" s="1">
         <v>1.01950785139916E+16</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252" t="s">
+        <v>479</v>
+      </c>
+      <c r="G252" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>4</v>
       </c>
@@ -4367,18 +5740,24 @@
       <c r="E253" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253" t="s">
+        <v>12</v>
+      </c>
+      <c r="G253" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>2</v>
       </c>
@@ -4394,8 +5773,14 @@
       <c r="E256" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256" t="s">
+        <v>480</v>
+      </c>
+      <c r="G256" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -4411,18 +5796,24 @@
       <c r="E257" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257" t="s">
+        <v>469</v>
+      </c>
+      <c r="G257" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>2</v>
       </c>
@@ -4438,8 +5829,14 @@
       <c r="E260" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260" t="s">
+        <v>481</v>
+      </c>
+      <c r="G260" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>4</v>
       </c>
@@ -4455,18 +5852,24 @@
       <c r="E261" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261" t="s">
+        <v>394</v>
+      </c>
+      <c r="G261" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -4482,8 +5885,14 @@
       <c r="E264" s="1">
         <v>1.00181722070611E+16</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F264" t="s">
+        <v>482</v>
+      </c>
+      <c r="G264" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -4499,18 +5908,24 @@
       <c r="E265" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F265" t="s">
+        <v>413</v>
+      </c>
+      <c r="G265" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>2</v>
       </c>
@@ -4526,8 +5941,14 @@
       <c r="E268" s="1">
         <v>1.09499929824345E+16</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F268" t="s">
+        <v>483</v>
+      </c>
+      <c r="G268" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>4</v>
       </c>
@@ -4543,18 +5964,24 @@
       <c r="E269" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F269" t="s">
+        <v>440</v>
+      </c>
+      <c r="G269" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>2</v>
       </c>
@@ -4570,8 +5997,14 @@
       <c r="E272" s="1">
         <v>1014696307585270</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F272" t="s">
+        <v>484</v>
+      </c>
+      <c r="G272" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>4</v>
       </c>
@@ -4587,18 +6020,24 @@
       <c r="E273" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F273" t="s">
+        <v>423</v>
+      </c>
+      <c r="G273" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>2</v>
       </c>
@@ -4614,8 +6053,14 @@
       <c r="E276" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F276" t="s">
+        <v>485</v>
+      </c>
+      <c r="G276" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>4</v>
       </c>
@@ -4631,18 +6076,24 @@
       <c r="E277" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F277" t="s">
+        <v>469</v>
+      </c>
+      <c r="G277" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>2</v>
       </c>
@@ -4658,8 +6109,14 @@
       <c r="E280" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F280" t="s">
+        <v>486</v>
+      </c>
+      <c r="G280" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>4</v>
       </c>
@@ -4674,6 +6131,12 @@
       </c>
       <c r="E281" t="s">
         <v>168</v>
+      </c>
+      <c r="F281" t="s">
+        <v>411</v>
+      </c>
+      <c r="G281" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -4689,4 +6152,1843 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA4AED5-1A30-4D25-94D4-9511FEB266F9}">
+  <dimension ref="B2:C281"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C281"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1.00246366640967E+16</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>2</v>
+      </c>
+      <c r="C175" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B207" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B214" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
+        <v>2</v>
+      </c>
+      <c r="C215" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
+        <v>2</v>
+      </c>
+      <c r="C219" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
+        <v>2</v>
+      </c>
+      <c r="C223" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B224" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B226" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B227" t="s">
+        <v>2</v>
+      </c>
+      <c r="C227" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" s="1">
+        <v>1.00737085986476E+16</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B232" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B234" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B235" t="s">
+        <v>2</v>
+      </c>
+      <c r="C235" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B238" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B239" t="s">
+        <v>2</v>
+      </c>
+      <c r="C239" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B240" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B242" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B243" t="s">
+        <v>2</v>
+      </c>
+      <c r="C243" s="1">
+        <v>1.06309885622158E+16</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B244" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B245" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B246" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B247" t="s">
+        <v>2</v>
+      </c>
+      <c r="C247" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B248" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B249" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B250" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
+        <v>2</v>
+      </c>
+      <c r="C251" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B252" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B253" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B254" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B255" t="s">
+        <v>2</v>
+      </c>
+      <c r="C255" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B256" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B258" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
+        <v>2</v>
+      </c>
+      <c r="C259" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B260" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
+        <v>2</v>
+      </c>
+      <c r="C263" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B265" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B266" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
+        <v>2</v>
+      </c>
+      <c r="C267" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B268" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B269" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B270" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
+        <v>2</v>
+      </c>
+      <c r="C271" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B273" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B274" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B275" t="s">
+        <v>2</v>
+      </c>
+      <c r="C275" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B276" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B277" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B278" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B279" t="s">
+        <v>2</v>
+      </c>
+      <c r="C279" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B280" t="s">
+        <v>4</v>
+      </c>
+      <c r="C280" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B281" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>